--- a/study2/presentation_for_paper/study2a_result_summary_table.xlsx
+++ b/study2/presentation_for_paper/study2a_result_summary_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study2/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="8_{15C60E80-9A1A-48EA-A71C-165DF35CD085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C2F0283-C1C8-4D1E-A22D-EC27B8AE0895}"/>
+  <xr:revisionPtr revIDLastSave="249" documentId="8_{15C60E80-9A1A-48EA-A71C-165DF35CD085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CA2C79F-9C0B-4193-9E03-AB8D26D5B257}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9ED74C4E-2FEE-4727-A694-DD6A3E62DAA7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>Assumption Test</t>
     <phoneticPr fontId="1"/>
@@ -163,6 +163,20 @@
   </si>
   <si>
     <t>Overall Attitude Towards Ad --&gt; Engagement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flagged</t>
+  </si>
+  <si>
+    <t>Flagged</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -469,7 +483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -479,134 +493,145 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2FBEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -617,63 +642,21 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -697,6 +680,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFF0FAEC"/>
         </patternFill>
       </fill>
@@ -704,56 +708,21 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -777,6 +746,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFF0FAEC"/>
         </patternFill>
       </fill>
@@ -784,49 +774,21 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -850,212 +812,11 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
@@ -1066,6 +827,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF2FBEF"/>
       <color rgb="FFF0FAEC"/>
     </mruColors>
   </colors>
@@ -1143,7 +905,72 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>226786</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>154214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>474436</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>92528</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5F1690-3DD0-72FA-B3E3-588FE36B7C70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="226786" y="4916714"/>
+          <a:ext cx="12167507" cy="4474028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1463,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E37A7FF-29BF-4061-BE3E-4B4F80131BE9}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="O19" sqref="A1:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1479,973 +1306,938 @@
     <col min="16" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:16" ht="18" customHeight="1">
+      <c r="A1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="34" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="9" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" ht="44" thickBot="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="35" t="s">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="44" thickBot="1">
+      <c r="A2" s="42"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:16">
+      <c r="A3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="21">
         <v>0.25</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="10">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="10">
         <v>1.5720000000000001</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="22">
         <v>8.6099999999999996E-2</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="21">
         <v>6.8655999999999997</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="10">
         <v>2.2709999999999999</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="22">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="12">
         <v>0.78290000000000004</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="10">
         <v>1.6892</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="10">
         <v>0.1263</v>
       </c>
-      <c r="N3" s="18">
-        <v>3.4599999999999999E-2</v>
-      </c>
-      <c r="O3" s="19">
+      <c r="N3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="34">
         <v>4.5338520000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="20"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="32" t="s">
+    <row r="4" spans="1:16">
+      <c r="A4" s="29"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="23">
         <v>0.221</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>1.343</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="24">
         <v>0.183</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="23">
         <v>10.4178</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <v>2.899</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="24">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="13">
         <v>0.18099999999999999</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="4">
         <v>2.3898000000000001</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="4">
         <v>0.49909999999999999</v>
       </c>
-      <c r="N4" s="6">
-        <v>4.5699999999999998E-2</v>
-      </c>
-      <c r="O4" s="21"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="N4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="35"/>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="20"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="32" t="s">
+    <row r="5" spans="1:16">
+      <c r="A5" s="29"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="23">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>0.159</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>2.0790000000000002</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="24">
         <v>1.34E-2</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="23">
         <v>14.7401</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <v>4.0640000000000001</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="24">
         <v>0</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="13">
         <v>0.66</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="4">
         <v>2.0205000000000002</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="4">
         <v>0.30059999999999998</v>
       </c>
-      <c r="N5" s="6">
-        <v>0.37490000000000001</v>
-      </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="N5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="35"/>
+      <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="33" t="s">
+    <row r="6" spans="1:16" ht="15" thickBot="1">
+      <c r="A6" s="30"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="25">
         <v>0.17899999999999999</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="11">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="11">
         <v>1.03</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="26">
         <v>0.436</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="25">
         <v>6.8571999999999997</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="11">
         <v>2.073</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="26">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="14">
         <v>0.36530000000000001</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="11">
         <v>2.2107000000000001</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="11">
         <v>0.89590000000000003</v>
       </c>
-      <c r="N6" s="24">
-        <v>5.6500000000000002E-2</v>
-      </c>
-      <c r="O6" s="25"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+      <c r="N6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="36"/>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:16">
+      <c r="A7" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="21">
         <v>0.57899999999999996</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="10">
         <v>0.46500000000000002</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="10">
         <v>5.0629999999999997</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="22">
         <v>3.5600000000000001E-8</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="21">
         <v>14.5144</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="10">
         <v>6.6130000000000004</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="22">
         <v>0</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="12">
         <v>0.7641</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="10">
         <v>1.8971</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="10">
         <v>0.78239999999999998</v>
       </c>
-      <c r="N7" s="18">
-        <v>0.7641</v>
-      </c>
-      <c r="O7" s="19">
+      <c r="N7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="34">
         <v>4.651713</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="20"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="32" t="s">
+    <row r="8" spans="1:16">
+      <c r="A8" s="29"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="23">
         <v>0.66700000000000004</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>0.57699999999999996</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>7.3730000000000002</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="24">
         <v>1.0399999999999999E-11</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="23">
         <v>19.6831</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="4">
         <v>10.099</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="24">
         <v>0</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="13">
         <v>0.70240000000000002</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="4">
         <v>2.1375999999999999</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="4">
         <v>0.76219999999999999</v>
       </c>
-      <c r="N8" s="6">
-        <v>0.21190000000000001</v>
-      </c>
-      <c r="O8" s="21"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="N8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="35"/>
     </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="20"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="32" t="s">
+    <row r="9" spans="1:16">
+      <c r="A9" s="29"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="23">
         <v>0.61699999999999999</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>0.51300000000000001</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>5.93</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="24">
         <v>1.4200000000000001E-9</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="23">
         <v>17.538900000000002</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="4">
         <v>6.8730000000000002</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="24">
         <v>0</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="13">
         <v>0.87839999999999996</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="4">
         <v>1.8333999999999999</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="4">
         <v>0.21160000000000001</v>
       </c>
-      <c r="N9" s="6">
-        <v>8.5099999999999995E-2</v>
-      </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="N9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="35"/>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="33" t="s">
+    <row r="10" spans="1:16" ht="15" thickBot="1">
+      <c r="A10" s="30"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="25">
         <v>0.63753627210663499</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="11">
         <v>0.53908933366646195</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="11">
         <v>6.4759380251735204</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="26">
         <v>2.0763884233372499E-10</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="25">
         <v>17.991869230349501</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="11">
         <v>9.3578528756025907</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="26">
         <v>1.5594025548885099E-14</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="14">
         <v>0.37024050882715298</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="11">
         <v>1.69756113333481</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="11">
         <v>0.58720854173044601</v>
       </c>
-      <c r="N10" s="24">
-        <v>0.499930649995803</v>
-      </c>
-      <c r="O10" s="25"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="N10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="36"/>
     </row>
-    <row r="11" spans="1:20" ht="14.5" customHeight="1">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:16" ht="14.5" customHeight="1">
+      <c r="A11" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="21">
         <v>0.83941451741706197</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="10">
         <v>0.78519084797347305</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="10">
         <v>15.4805922585216</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="22">
         <v>4.7428413460812098E-21</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="21">
         <v>11.4348436276944</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="10">
         <v>5.6168103226378596</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="22">
         <v>2.9610140032215999E-7</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="12">
         <v>0.86851546945105595</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="10">
         <v>2.1421449882138601</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="10">
         <v>4.5702703383471398E-2</v>
       </c>
-      <c r="N11" s="18">
-        <v>3.3365804702043499E-2</v>
-      </c>
-      <c r="O11" s="19">
+      <c r="N11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="34">
         <v>4.7594735312080099</v>
       </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="20"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="32" t="s">
+    <row r="12" spans="1:16">
+      <c r="A12" s="29"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="23">
         <v>0.87242769354746896</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>0.82935133032973196</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>20.253048966497499</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="24">
         <v>1.05392314057964E-24</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="23">
         <v>13.0235678908497</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="4">
         <v>6.3251296687906402</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="24">
         <v>1.52757961481534E-8</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="13">
         <v>0.73470473013759996</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="4">
         <v>2.1492607800713102</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="4">
         <v>5.2819835778967802E-2</v>
       </c>
-      <c r="N12" s="6">
-        <v>0.58805650472640902</v>
-      </c>
-      <c r="O12" s="21"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="N12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="35"/>
     </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="20"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="32" t="s">
+    <row r="13" spans="1:16">
+      <c r="A13" s="29"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="23">
         <v>0.865617043943257</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>0.82024098085916197</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>19.076512705366699</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="24">
         <v>7.1257205745514898E-24</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="23">
         <v>15.5482117147435</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="4">
         <v>7.0107047581237403</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="24">
         <v>7.9336051919577497E-10</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="13">
         <v>1.78991066353856E-2</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="4">
         <v>2.2749218582362301</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="4">
         <v>5.8077503731981998E-2</v>
       </c>
-      <c r="N13" s="6">
-        <v>6.1262375675141803E-3</v>
-      </c>
-      <c r="O13" s="21"/>
+      <c r="N13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="35"/>
     </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="33" t="s">
+    <row r="14" spans="1:16" ht="15" thickBot="1">
+      <c r="A14" s="30"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="25">
         <v>0.89879228628544305</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="11">
         <v>0.86461825308312501</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="11">
         <v>26.300445164443801</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="26">
         <v>2.00675096961216E-28</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="25">
         <v>13.2434034904848</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="11">
         <v>7.6646223652371503</v>
       </c>
-      <c r="J14" s="42">
+      <c r="J14" s="26">
         <v>4.4881819599392599E-11</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="14">
         <v>0.55896241458343299</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="11">
         <v>2.1809235300750598</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="11">
         <v>0.13741797080745699</v>
       </c>
-      <c r="N14" s="24">
-        <v>1.51664773002266E-2</v>
-      </c>
-      <c r="O14" s="25"/>
+      <c r="N14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="36"/>
     </row>
-    <row r="15" spans="1:20" ht="14.5" customHeight="1">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:16" ht="14.5" customHeight="1">
+      <c r="A15" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="21">
         <v>0.83941451741706197</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="10">
         <v>0.78519084797347305</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="10">
         <v>15.4805922585216</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="22">
         <v>4.7428413460812098E-21</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="21">
         <v>14.1025523521627</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="10">
         <v>6.4103067325677703</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="22">
         <v>1.0620637416471599E-8</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="12">
         <v>0.86851546945105595</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="10">
         <v>2.1421449882138601</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="10">
         <v>4.5702703383471398E-2</v>
       </c>
-      <c r="N15" s="18">
-        <v>3.3365804702043499E-2</v>
-      </c>
-      <c r="O15" s="19">
+      <c r="N15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="34">
         <v>4.7594735312080099</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="20"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="32" t="s">
+    <row r="16" spans="1:16">
+      <c r="A16" s="29"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="23">
         <v>0.87242769354746896</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>0.82935133032973196</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="4">
         <v>20.253048966497499</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="24">
         <v>1.05392314057964E-24</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="23">
         <v>13.984741724578001</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="4">
         <v>7.0146646684541398</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="24">
         <v>7.7977641432415996E-10</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="13">
         <v>0.73470473013759996</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="4">
         <v>2.1492607800713102</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="4">
         <v>5.2819835778967802E-2</v>
       </c>
-      <c r="N16" s="6">
-        <v>0.58805650472640902</v>
-      </c>
-      <c r="O16" s="21"/>
+      <c r="N16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="35"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="32" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="23">
         <v>0.865617043943257</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="4">
         <v>0.82024098085916197</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="4">
         <v>19.076512705366699</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="24">
         <v>7.1257205745514898E-24</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="23">
         <v>10.2063714025224</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="4">
         <v>4.5374540698320702</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17" s="24">
         <v>2.06355850586956E-5</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K17" s="13">
         <v>1.78991066353856E-2</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="4">
         <v>2.2749218582362301</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="4">
         <v>5.8077503731981998E-2</v>
       </c>
-      <c r="N17" s="6">
-        <v>6.1262375675141803E-3</v>
-      </c>
-      <c r="O17" s="21"/>
+      <c r="N17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="35"/>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="33" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="25">
         <v>0.89879228628544305</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="11">
         <v>0.86461825308312501</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="11">
         <v>26.300445164443801</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="26">
         <v>2.00675096961216E-28</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="25">
         <v>15.039757350148101</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="11">
         <v>8.88271380934974</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="26">
         <v>2.0183254293969499E-13</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="14">
         <v>0.55896241458343299</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="11">
         <v>2.1809235300750598</v>
       </c>
-      <c r="M18" s="24">
+      <c r="M18" s="11">
         <v>0.13741797080745699</v>
       </c>
-      <c r="N18" s="24">
-        <v>1.51664773002266E-2</v>
-      </c>
-      <c r="O18" s="25"/>
+      <c r="N18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18" s="36"/>
     </row>
     <row r="19" spans="1:15" ht="14.5" customHeight="1">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="21">
         <v>0.917743813014121</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="10">
         <v>0.88393990055417104</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="10">
         <v>27.149041227149102</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="22">
         <v>8.6836690386240202E-29</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="21">
         <v>1.0396302761442899</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="10">
         <v>9.7677877518529108</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="22">
         <v>6.8665729563589503E-15</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="12">
         <v>0.86750724512358302</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="10">
         <v>1.79598288635892</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M19" s="10">
         <v>7.1011103747971593E-2</v>
       </c>
-      <c r="N19" s="18">
-        <v>0.17535355687141399</v>
-      </c>
-      <c r="O19" s="19">
+      <c r="N19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="34">
         <v>10.8468684156917</v>
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="32" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="23">
         <v>0.87236367437291895</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="4">
         <v>0.81991038986863896</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="4">
         <v>16.631249741886801</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="24">
         <v>4.02072472262489E-22</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="23">
         <v>0.92112881559096205</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="4">
         <v>6.7904435216367602</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="24">
         <v>2.54264653579417E-9</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K20" s="13">
         <v>0.379194775189584</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="4">
         <v>1.54974357653228</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="4">
         <v>0.409090341251374</v>
       </c>
-      <c r="N20" s="6">
-        <v>6.3621923800383203E-6</v>
-      </c>
-      <c r="O20" s="21"/>
+      <c r="N20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O20" s="35"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="32" t="s">
+      <c r="A21" s="29"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="23">
         <v>0.91937597437356999</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="4">
         <v>0.88624281315722997</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="4">
         <v>27.747909967617201</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="24">
         <v>4.2804081950245202E-29</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="23">
         <v>0.93156977332330904</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="4">
         <v>8.0804748429484192</v>
       </c>
-      <c r="J21" s="40">
+      <c r="J21" s="24">
         <v>9.9415778993987105E-12</v>
       </c>
-      <c r="K21" s="27">
+      <c r="K21" s="13">
         <v>9.43814629097635E-2</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="4">
         <v>1.79442539358236</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="4">
         <v>0.46700870277392398</v>
       </c>
-      <c r="N21" s="6">
-        <v>1.8328886426388599E-6</v>
-      </c>
-      <c r="O21" s="21"/>
+      <c r="N21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" s="35"/>
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="33" t="s">
+      <c r="A22" s="30"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="25">
         <v>0.95846179306591905</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="11">
         <v>0.94139129706561198</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="11">
         <v>56.147272642146604</v>
       </c>
-      <c r="G22" s="42">
+      <c r="G22" s="26">
         <v>2.31569496277457E-39</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="25">
         <v>1.0231564916742799</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="11">
         <v>11.4862738822337</v>
       </c>
-      <c r="J22" s="42">
+      <c r="J22" s="26">
         <v>4.9958131786163897E-18</v>
       </c>
-      <c r="K22" s="28">
+      <c r="K22" s="14">
         <v>4.8140276965320999E-2</v>
       </c>
-      <c r="L22" s="24">
+      <c r="L22" s="11">
         <v>2.2168194850029801</v>
       </c>
-      <c r="M22" s="24">
+      <c r="M22" s="11">
         <v>0.64678377448344204</v>
       </c>
-      <c r="N22" s="24">
-        <v>8.1977955996990204E-3</v>
-      </c>
-      <c r="O22" s="25"/>
+      <c r="N22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O22" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="A19:A22"/>
@@ -2455,72 +2247,54 @@
     <mergeCell ref="O19:O22"/>
     <mergeCell ref="O15:O18"/>
     <mergeCell ref="O11:O14"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="G3:G1048576">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J1048576">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K3:K1048576">
-    <cfRule type="cellIs" dxfId="31" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L1048576">
-    <cfRule type="cellIs" dxfId="30" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="between">
       <formula>1.5</formula>
       <formula>2.5</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:N1048576">
-    <cfRule type="cellIs" dxfId="29" priority="9" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3 O7 O11 O23:O1048576 O19 O15">
-    <cfRule type="cellIs" dxfId="28" priority="8" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J1048576">
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G1048576">
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K1048576">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L1048576">
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="between">
       <formula>1.5</formula>
       <formula>2.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M1048576">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N1048576">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="M3:M1048576 O3:O1048576">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O1048576">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
-      <formula>0.05</formula>
+  <conditionalFormatting sqref="O3 O7 O11 O15 O19 O23:O1048576">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2531,8 +2305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851638F2-D2E0-4D93-B5E6-D28E3434FF27}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/study2/presentation_for_paper/study2a_result_summary_table.xlsx
+++ b/study2/presentation_for_paper/study2a_result_summary_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study2/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="249" documentId="8_{15C60E80-9A1A-48EA-A71C-165DF35CD085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CA2C79F-9C0B-4193-9E03-AB8D26D5B257}"/>
+  <xr:revisionPtr revIDLastSave="337" documentId="8_{15C60E80-9A1A-48EA-A71C-165DF35CD085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAE38350-DCC8-4677-91CC-446B749B2305}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9ED74C4E-2FEE-4727-A694-DD6A3E62DAA7}"/>
   </bookViews>
@@ -184,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,25 +203,40 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -230,251 +245,63 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -483,7 +310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -493,131 +320,107 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="70">
     <dxf>
       <fill>
         <patternFill>
@@ -628,6 +431,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFF2FBEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -636,13 +446,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -694,6 +497,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFF2FBEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2FBEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -702,13 +526,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFF0FAEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -760,6 +577,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFF2FBEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -775,6 +599,291 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF0FAEC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF0FAEC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2FBEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF0FAEC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF0FAEC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF0FAEC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2FBEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF0FAEC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF0FAEC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF0FAEC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2FBEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF0FAEC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF0FAEC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF0FAEC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2FBEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF0FAEC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -908,22 +1017,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>226786</xdr:colOff>
+      <xdr:colOff>145143</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>154214</xdr:rowOff>
+      <xdr:rowOff>99786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>474436</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>92528</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>3628</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>188685</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5F1690-3DD0-72FA-B3E3-588FE36B7C70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A355F8-D9E9-850C-54D0-75C3A6B8C54C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -946,8 +1055,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="226786" y="4916714"/>
-          <a:ext cx="12167507" cy="4474028"/>
+          <a:off x="145143" y="4862286"/>
+          <a:ext cx="13102771" cy="4171042"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -967,10 +1076,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1290,1011 +1395,1088 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E37A7FF-29BF-4061-BE3E-4B4F80131BE9}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="B1:T24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O19" sqref="A1:O22"/>
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="10" width="8.5" style="1" customWidth="1"/>
-    <col min="11" max="15" width="9.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="0.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.08203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="0.6640625" style="12" customWidth="1"/>
+    <col min="6" max="9" width="9.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="0.58203125" style="15" customWidth="1"/>
+    <col min="11" max="13" width="8.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="0.58203125" style="12" customWidth="1"/>
+    <col min="15" max="19" width="10.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="0.9140625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" customHeight="1">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="2:20" ht="4" customHeight="1"/>
+    <row r="2" spans="2:20" ht="18" customHeight="1">
+      <c r="B2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="18" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="5" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="6"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="44" thickBot="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="19" t="s">
+    <row r="3" spans="2:20" s="2" customFormat="1" ht="23">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="H3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="I3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="J3" s="33"/>
+      <c r="K3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="L3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="M3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="N3" s="32"/>
+      <c r="O3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="P3" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="Q3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="R3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="S3" s="34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="28" t="s">
+    <row r="4" spans="2:20">
+      <c r="B4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="C4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="21">
+      <c r="E4" s="4"/>
+      <c r="F4" s="5">
         <v>0.25</v>
       </c>
-      <c r="E3" s="10">
+      <c r="G4" s="5">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="F3" s="10">
+      <c r="H4" s="5">
         <v>1.5720000000000001</v>
       </c>
-      <c r="G3" s="22">
+      <c r="I4" s="5">
         <v>8.6099999999999996E-2</v>
       </c>
-      <c r="H3" s="21">
+      <c r="J4" s="16"/>
+      <c r="K4" s="5">
         <v>6.8655999999999997</v>
       </c>
-      <c r="I3" s="10">
+      <c r="L4" s="5">
         <v>2.2709999999999999</v>
       </c>
-      <c r="J3" s="22">
+      <c r="M4" s="5">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="K3" s="12">
+      <c r="N4" s="5"/>
+      <c r="O4" s="23">
         <v>0.78290000000000004</v>
       </c>
-      <c r="L3" s="10">
+      <c r="P4" s="23">
         <v>1.6892</v>
       </c>
-      <c r="M3" s="10">
+      <c r="Q4" s="23">
         <v>0.1263</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="R4" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="34">
+      <c r="S4" s="24">
         <v>4.5338520000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="29"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="16" t="s">
+    <row r="5" spans="2:20">
+      <c r="B5" s="3"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="23">
+      <c r="E5" s="4"/>
+      <c r="F5" s="5">
         <v>0.221</v>
       </c>
-      <c r="E4" s="4">
+      <c r="G5" s="5">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="H5" s="5">
         <v>1.343</v>
       </c>
-      <c r="G4" s="24">
+      <c r="I5" s="5">
         <v>0.183</v>
       </c>
-      <c r="H4" s="23">
+      <c r="J5" s="16"/>
+      <c r="K5" s="5">
         <v>10.4178</v>
       </c>
-      <c r="I4" s="4">
+      <c r="L5" s="5">
         <v>2.899</v>
       </c>
-      <c r="J4" s="24">
+      <c r="M5" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K4" s="13">
+      <c r="N5" s="5"/>
+      <c r="O5" s="5">
         <v>0.18099999999999999</v>
       </c>
-      <c r="L4" s="4">
+      <c r="P5" s="5">
         <v>2.3898000000000001</v>
       </c>
-      <c r="M4" s="4">
+      <c r="Q5" s="5">
         <v>0.49909999999999999</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="R5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="35"/>
+      <c r="S5" s="6"/>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="29"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="16" t="s">
+    <row r="6" spans="2:20">
+      <c r="B6" s="3"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="23">
+      <c r="E6" s="4"/>
+      <c r="F6" s="5">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E5" s="4">
+      <c r="G6" s="5">
         <v>0.159</v>
       </c>
-      <c r="F5" s="4">
+      <c r="H6" s="5">
         <v>2.0790000000000002</v>
       </c>
-      <c r="G5" s="24">
+      <c r="I6" s="5">
         <v>1.34E-2</v>
       </c>
-      <c r="H5" s="23">
+      <c r="J6" s="16"/>
+      <c r="K6" s="5">
         <v>14.7401</v>
       </c>
-      <c r="I5" s="4">
+      <c r="L6" s="5">
         <v>4.0640000000000001</v>
       </c>
-      <c r="J5" s="24">
+      <c r="M6" s="5">
         <v>0</v>
       </c>
-      <c r="K5" s="13">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5">
         <v>0.66</v>
       </c>
-      <c r="L5" s="4">
+      <c r="P6" s="5">
         <v>2.0205000000000002</v>
       </c>
-      <c r="M5" s="4">
+      <c r="Q6" s="5">
         <v>0.30059999999999998</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="R6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="35"/>
-      <c r="P5" s="3"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="7"/>
     </row>
-    <row r="6" spans="1:16" ht="15" thickBot="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="17" t="s">
+    <row r="7" spans="2:20">
+      <c r="B7" s="8"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="25">
+      <c r="E7" s="4"/>
+      <c r="F7" s="10">
         <v>0.17899999999999999</v>
       </c>
-      <c r="E6" s="11">
+      <c r="G7" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F6" s="11">
+      <c r="H7" s="10">
         <v>1.03</v>
       </c>
-      <c r="G6" s="26">
+      <c r="I7" s="10">
         <v>0.436</v>
       </c>
-      <c r="H6" s="25">
+      <c r="J7" s="16"/>
+      <c r="K7" s="10">
         <v>6.8571999999999997</v>
       </c>
-      <c r="I6" s="11">
+      <c r="L7" s="10">
         <v>2.073</v>
       </c>
-      <c r="J6" s="26">
+      <c r="M7" s="10">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="K6" s="14">
+      <c r="N7" s="5"/>
+      <c r="O7" s="10">
         <v>0.36530000000000001</v>
       </c>
-      <c r="L6" s="11">
+      <c r="P7" s="10">
         <v>2.2107000000000001</v>
       </c>
-      <c r="M6" s="11">
+      <c r="Q7" s="10">
         <v>0.89590000000000003</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="R7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="36"/>
+      <c r="S7" s="11"/>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="28" t="s">
+    <row r="8" spans="2:20">
+      <c r="B8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="C8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="D8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="21">
+      <c r="E8" s="4"/>
+      <c r="F8" s="5">
         <v>0.57899999999999996</v>
       </c>
-      <c r="E7" s="10">
+      <c r="G8" s="5">
         <v>0.46500000000000002</v>
       </c>
-      <c r="F7" s="10">
+      <c r="H8" s="5">
         <v>5.0629999999999997</v>
       </c>
-      <c r="G7" s="22">
+      <c r="I8" s="5">
         <v>3.5600000000000001E-8</v>
       </c>
-      <c r="H7" s="21">
+      <c r="J8" s="16"/>
+      <c r="K8" s="5">
         <v>14.5144</v>
       </c>
-      <c r="I7" s="10">
+      <c r="L8" s="5">
         <v>6.6130000000000004</v>
       </c>
-      <c r="J7" s="22">
+      <c r="M8" s="5">
         <v>0</v>
       </c>
-      <c r="K7" s="12">
+      <c r="N8" s="5"/>
+      <c r="O8" s="23">
         <v>0.7641</v>
       </c>
-      <c r="L7" s="10">
+      <c r="P8" s="23">
         <v>1.8971</v>
       </c>
-      <c r="M7" s="10">
+      <c r="Q8" s="23">
         <v>0.78239999999999998</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="R8" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="34">
+      <c r="S8" s="24">
         <v>4.651713</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="29"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="16" t="s">
+    <row r="9" spans="2:20">
+      <c r="B9" s="3"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="23">
+      <c r="E9" s="4"/>
+      <c r="F9" s="5">
         <v>0.66700000000000004</v>
       </c>
-      <c r="E8" s="4">
+      <c r="G9" s="5">
         <v>0.57699999999999996</v>
       </c>
-      <c r="F8" s="4">
+      <c r="H9" s="5">
         <v>7.3730000000000002</v>
       </c>
-      <c r="G8" s="24">
+      <c r="I9" s="5">
         <v>1.0399999999999999E-11</v>
       </c>
-      <c r="H8" s="23">
+      <c r="J9" s="16"/>
+      <c r="K9" s="5">
         <v>19.6831</v>
       </c>
-      <c r="I8" s="4">
+      <c r="L9" s="5">
         <v>10.099</v>
       </c>
-      <c r="J8" s="24">
+      <c r="M9" s="5">
         <v>0</v>
       </c>
-      <c r="K8" s="13">
+      <c r="N9" s="5"/>
+      <c r="O9" s="5">
         <v>0.70240000000000002</v>
       </c>
-      <c r="L8" s="4">
+      <c r="P9" s="5">
         <v>2.1375999999999999</v>
       </c>
-      <c r="M8" s="4">
+      <c r="Q9" s="5">
         <v>0.76219999999999999</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="R9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="35"/>
+      <c r="S9" s="6"/>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="29"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="16" t="s">
+    <row r="10" spans="2:20">
+      <c r="B10" s="3"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="23">
+      <c r="E10" s="4"/>
+      <c r="F10" s="5">
         <v>0.61699999999999999</v>
       </c>
-      <c r="E9" s="4">
+      <c r="G10" s="5">
         <v>0.51300000000000001</v>
       </c>
-      <c r="F9" s="4">
+      <c r="H10" s="5">
         <v>5.93</v>
       </c>
-      <c r="G9" s="24">
+      <c r="I10" s="5">
         <v>1.4200000000000001E-9</v>
       </c>
-      <c r="H9" s="23">
+      <c r="J10" s="16"/>
+      <c r="K10" s="5">
         <v>17.538900000000002</v>
       </c>
-      <c r="I9" s="4">
+      <c r="L10" s="5">
         <v>6.8730000000000002</v>
       </c>
-      <c r="J9" s="24">
+      <c r="M10" s="5">
         <v>0</v>
       </c>
-      <c r="K9" s="13">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5">
         <v>0.87839999999999996</v>
       </c>
-      <c r="L9" s="4">
+      <c r="P10" s="5">
         <v>1.8333999999999999</v>
       </c>
-      <c r="M9" s="4">
+      <c r="Q10" s="5">
         <v>0.21160000000000001</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="R10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="35"/>
+      <c r="S10" s="6"/>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="17" t="s">
+    <row r="11" spans="2:20">
+      <c r="B11" s="8"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="25">
+      <c r="E11" s="4"/>
+      <c r="F11" s="10">
         <v>0.63753627210663499</v>
       </c>
-      <c r="E10" s="11">
+      <c r="G11" s="10">
         <v>0.53908933366646195</v>
       </c>
-      <c r="F10" s="11">
+      <c r="H11" s="10">
         <v>6.4759380251735204</v>
       </c>
-      <c r="G10" s="26">
+      <c r="I11" s="10">
         <v>2.0763884233372499E-10</v>
       </c>
-      <c r="H10" s="25">
+      <c r="J11" s="16"/>
+      <c r="K11" s="10">
         <v>17.991869230349501</v>
       </c>
-      <c r="I10" s="11">
+      <c r="L11" s="10">
         <v>9.3578528756025907</v>
       </c>
-      <c r="J10" s="26">
+      <c r="M11" s="10">
         <v>1.5594025548885099E-14</v>
       </c>
-      <c r="K10" s="14">
+      <c r="N11" s="5"/>
+      <c r="O11" s="10">
         <v>0.37024050882715298</v>
       </c>
-      <c r="L10" s="11">
+      <c r="P11" s="10">
         <v>1.69756113333481</v>
       </c>
-      <c r="M10" s="11">
+      <c r="Q11" s="10">
         <v>0.58720854173044601</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="R11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="36"/>
+      <c r="S11" s="11"/>
     </row>
-    <row r="11" spans="1:16" ht="14.5" customHeight="1">
-      <c r="A11" s="28" t="s">
+    <row r="12" spans="2:20" ht="14.5" customHeight="1">
+      <c r="B12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="C12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="21">
+      <c r="E12" s="4"/>
+      <c r="F12" s="5">
         <v>0.83941451741706197</v>
       </c>
-      <c r="E11" s="10">
+      <c r="G12" s="5">
         <v>0.78519084797347305</v>
       </c>
-      <c r="F11" s="10">
+      <c r="H12" s="5">
         <v>15.4805922585216</v>
       </c>
-      <c r="G11" s="22">
+      <c r="I12" s="5">
         <v>4.7428413460812098E-21</v>
       </c>
-      <c r="H11" s="21">
+      <c r="J12" s="16"/>
+      <c r="K12" s="5">
         <v>11.4348436276944</v>
       </c>
-      <c r="I11" s="10">
+      <c r="L12" s="5">
         <v>5.6168103226378596</v>
       </c>
-      <c r="J11" s="22">
+      <c r="M12" s="5">
         <v>2.9610140032215999E-7</v>
       </c>
-      <c r="K11" s="12">
+      <c r="N12" s="5"/>
+      <c r="O12" s="23">
         <v>0.86851546945105595</v>
       </c>
-      <c r="L11" s="10">
+      <c r="P12" s="23">
         <v>2.1421449882138601</v>
       </c>
-      <c r="M11" s="10">
+      <c r="Q12" s="23">
         <v>4.5702703383471398E-2</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="R12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="34">
+      <c r="S12" s="24">
         <v>4.7594735312080099</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="29"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="16" t="s">
+    <row r="13" spans="2:20">
+      <c r="B13" s="3"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="23">
+      <c r="E13" s="4"/>
+      <c r="F13" s="5">
         <v>0.87242769354746896</v>
       </c>
-      <c r="E12" s="4">
+      <c r="G13" s="5">
         <v>0.82935133032973196</v>
       </c>
-      <c r="F12" s="4">
+      <c r="H13" s="5">
         <v>20.253048966497499</v>
       </c>
-      <c r="G12" s="24">
+      <c r="I13" s="5">
         <v>1.05392314057964E-24</v>
       </c>
-      <c r="H12" s="23">
+      <c r="J13" s="16"/>
+      <c r="K13" s="5">
         <v>13.0235678908497</v>
       </c>
-      <c r="I12" s="4">
+      <c r="L13" s="5">
         <v>6.3251296687906402</v>
       </c>
-      <c r="J12" s="24">
+      <c r="M13" s="5">
         <v>1.52757961481534E-8</v>
       </c>
-      <c r="K12" s="13">
+      <c r="N13" s="5"/>
+      <c r="O13" s="5">
         <v>0.73470473013759996</v>
       </c>
-      <c r="L12" s="4">
+      <c r="P13" s="5">
         <v>2.1492607800713102</v>
       </c>
-      <c r="M12" s="4">
+      <c r="Q13" s="5">
         <v>5.2819835778967802E-2</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="R13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="35"/>
+      <c r="S13" s="6"/>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="29"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="16" t="s">
+    <row r="14" spans="2:20">
+      <c r="B14" s="3"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="23">
+      <c r="E14" s="4"/>
+      <c r="F14" s="5">
         <v>0.865617043943257</v>
       </c>
-      <c r="E13" s="4">
+      <c r="G14" s="5">
         <v>0.82024098085916197</v>
       </c>
-      <c r="F13" s="4">
+      <c r="H14" s="5">
         <v>19.076512705366699</v>
       </c>
-      <c r="G13" s="24">
+      <c r="I14" s="5">
         <v>7.1257205745514898E-24</v>
       </c>
-      <c r="H13" s="23">
+      <c r="J14" s="16"/>
+      <c r="K14" s="5">
         <v>15.5482117147435</v>
       </c>
-      <c r="I13" s="4">
+      <c r="L14" s="5">
         <v>7.0107047581237403</v>
       </c>
-      <c r="J13" s="24">
+      <c r="M14" s="5">
         <v>7.9336051919577497E-10</v>
       </c>
-      <c r="K13" s="13">
+      <c r="N14" s="5"/>
+      <c r="O14" s="5">
         <v>1.78991066353856E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="P14" s="5">
         <v>2.2749218582362301</v>
       </c>
-      <c r="M13" s="4">
+      <c r="Q14" s="5">
         <v>5.8077503731981998E-2</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="R14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="35"/>
+      <c r="S14" s="6"/>
     </row>
-    <row r="14" spans="1:16" ht="15" thickBot="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="17" t="s">
+    <row r="15" spans="2:20">
+      <c r="B15" s="8"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="25">
+      <c r="E15" s="4"/>
+      <c r="F15" s="10">
         <v>0.89879228628544305</v>
       </c>
-      <c r="E14" s="11">
+      <c r="G15" s="10">
         <v>0.86461825308312501</v>
       </c>
-      <c r="F14" s="11">
+      <c r="H15" s="10">
         <v>26.300445164443801</v>
       </c>
-      <c r="G14" s="26">
+      <c r="I15" s="10">
         <v>2.00675096961216E-28</v>
       </c>
-      <c r="H14" s="25">
+      <c r="J15" s="16"/>
+      <c r="K15" s="10">
         <v>13.2434034904848</v>
       </c>
-      <c r="I14" s="11">
+      <c r="L15" s="10">
         <v>7.6646223652371503</v>
       </c>
-      <c r="J14" s="26">
+      <c r="M15" s="10">
         <v>4.4881819599392599E-11</v>
       </c>
-      <c r="K14" s="14">
+      <c r="N15" s="5"/>
+      <c r="O15" s="10">
         <v>0.55896241458343299</v>
       </c>
-      <c r="L14" s="11">
+      <c r="P15" s="10">
         <v>2.1809235300750598</v>
       </c>
-      <c r="M14" s="11">
+      <c r="Q15" s="10">
         <v>0.13741797080745699</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="R15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O14" s="36"/>
+      <c r="S15" s="11"/>
     </row>
-    <row r="15" spans="1:16" ht="14.5" customHeight="1">
-      <c r="A15" s="28" t="s">
+    <row r="16" spans="2:20" ht="14.5" customHeight="1">
+      <c r="B16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="C16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D16" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="21">
+      <c r="E16" s="4"/>
+      <c r="F16" s="5">
         <v>0.83941451741706197</v>
       </c>
-      <c r="E15" s="10">
+      <c r="G16" s="5">
         <v>0.78519084797347305</v>
       </c>
-      <c r="F15" s="10">
+      <c r="H16" s="5">
         <v>15.4805922585216</v>
       </c>
-      <c r="G15" s="22">
+      <c r="I16" s="5">
         <v>4.7428413460812098E-21</v>
       </c>
-      <c r="H15" s="21">
+      <c r="J16" s="16"/>
+      <c r="K16" s="5">
         <v>14.1025523521627</v>
       </c>
-      <c r="I15" s="10">
+      <c r="L16" s="5">
         <v>6.4103067325677703</v>
       </c>
-      <c r="J15" s="22">
+      <c r="M16" s="5">
         <v>1.0620637416471599E-8</v>
       </c>
-      <c r="K15" s="12">
+      <c r="N16" s="5"/>
+      <c r="O16" s="23">
         <v>0.86851546945105595</v>
       </c>
-      <c r="L15" s="10">
+      <c r="P16" s="23">
         <v>2.1421449882138601</v>
       </c>
-      <c r="M15" s="10">
+      <c r="Q16" s="23">
         <v>4.5702703383471398E-2</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="R16" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="34">
+      <c r="S16" s="24">
         <v>4.7594735312080099</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="29"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="16" t="s">
+    <row r="17" spans="2:19">
+      <c r="B17" s="3"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="23">
+      <c r="E17" s="4"/>
+      <c r="F17" s="5">
         <v>0.87242769354746896</v>
       </c>
-      <c r="E16" s="4">
+      <c r="G17" s="5">
         <v>0.82935133032973196</v>
       </c>
-      <c r="F16" s="4">
+      <c r="H17" s="5">
         <v>20.253048966497499</v>
       </c>
-      <c r="G16" s="24">
+      <c r="I17" s="5">
         <v>1.05392314057964E-24</v>
       </c>
-      <c r="H16" s="23">
+      <c r="J17" s="16"/>
+      <c r="K17" s="5">
         <v>13.984741724578001</v>
       </c>
-      <c r="I16" s="4">
+      <c r="L17" s="5">
         <v>7.0146646684541398</v>
       </c>
-      <c r="J16" s="24">
+      <c r="M17" s="5">
         <v>7.7977641432415996E-10</v>
       </c>
-      <c r="K16" s="13">
+      <c r="N17" s="5"/>
+      <c r="O17" s="5">
         <v>0.73470473013759996</v>
       </c>
-      <c r="L16" s="4">
+      <c r="P17" s="5">
         <v>2.1492607800713102</v>
       </c>
-      <c r="M16" s="4">
+      <c r="Q17" s="5">
         <v>5.2819835778967802E-2</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="R17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="35"/>
+      <c r="S17" s="6"/>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="29"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="16" t="s">
+    <row r="18" spans="2:19">
+      <c r="B18" s="3"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="23">
+      <c r="E18" s="4"/>
+      <c r="F18" s="5">
         <v>0.865617043943257</v>
       </c>
-      <c r="E17" s="4">
+      <c r="G18" s="5">
         <v>0.82024098085916197</v>
       </c>
-      <c r="F17" s="4">
+      <c r="H18" s="5">
         <v>19.076512705366699</v>
       </c>
-      <c r="G17" s="24">
+      <c r="I18" s="5">
         <v>7.1257205745514898E-24</v>
       </c>
-      <c r="H17" s="23">
+      <c r="J18" s="16"/>
+      <c r="K18" s="5">
         <v>10.2063714025224</v>
       </c>
-      <c r="I17" s="4">
+      <c r="L18" s="5">
         <v>4.5374540698320702</v>
       </c>
-      <c r="J17" s="24">
+      <c r="M18" s="5">
         <v>2.06355850586956E-5</v>
       </c>
-      <c r="K17" s="13">
+      <c r="N18" s="5"/>
+      <c r="O18" s="5">
         <v>1.78991066353856E-2</v>
       </c>
-      <c r="L17" s="4">
+      <c r="P18" s="5">
         <v>2.2749218582362301</v>
       </c>
-      <c r="M17" s="4">
+      <c r="Q18" s="5">
         <v>5.8077503731981998E-2</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="R18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O17" s="35"/>
+      <c r="S18" s="6"/>
     </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1">
-      <c r="A18" s="30"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="17" t="s">
+    <row r="19" spans="2:19">
+      <c r="B19" s="8"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="25">
+      <c r="E19" s="4"/>
+      <c r="F19" s="10">
         <v>0.89879228628544305</v>
       </c>
-      <c r="E18" s="11">
+      <c r="G19" s="10">
         <v>0.86461825308312501</v>
       </c>
-      <c r="F18" s="11">
+      <c r="H19" s="10">
         <v>26.300445164443801</v>
       </c>
-      <c r="G18" s="26">
+      <c r="I19" s="10">
         <v>2.00675096961216E-28</v>
       </c>
-      <c r="H18" s="25">
+      <c r="J19" s="16"/>
+      <c r="K19" s="10">
         <v>15.039757350148101</v>
       </c>
-      <c r="I18" s="11">
+      <c r="L19" s="10">
         <v>8.88271380934974</v>
       </c>
-      <c r="J18" s="26">
+      <c r="M19" s="10">
         <v>2.0183254293969499E-13</v>
       </c>
-      <c r="K18" s="14">
+      <c r="N19" s="5"/>
+      <c r="O19" s="10">
         <v>0.55896241458343299</v>
       </c>
-      <c r="L18" s="11">
+      <c r="P19" s="10">
         <v>2.1809235300750598</v>
       </c>
-      <c r="M18" s="11">
+      <c r="Q19" s="10">
         <v>0.13741797080745699</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="R19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O18" s="36"/>
+      <c r="S19" s="11"/>
     </row>
-    <row r="19" spans="1:15" ht="14.5" customHeight="1">
-      <c r="A19" s="28" t="s">
+    <row r="20" spans="2:19" ht="14.5" customHeight="1">
+      <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="C20" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="21">
+      <c r="E20" s="4"/>
+      <c r="F20" s="5">
         <v>0.917743813014121</v>
       </c>
-      <c r="E19" s="10">
+      <c r="G20" s="5">
         <v>0.88393990055417104</v>
       </c>
-      <c r="F19" s="10">
+      <c r="H20" s="5">
         <v>27.149041227149102</v>
       </c>
-      <c r="G19" s="22">
+      <c r="I20" s="5">
         <v>8.6836690386240202E-29</v>
       </c>
-      <c r="H19" s="21">
+      <c r="J20" s="16"/>
+      <c r="K20" s="5">
         <v>1.0396302761442899</v>
       </c>
-      <c r="I19" s="10">
+      <c r="L20" s="5">
         <v>9.7677877518529108</v>
       </c>
-      <c r="J19" s="22">
+      <c r="M20" s="5">
         <v>6.8665729563589503E-15</v>
       </c>
-      <c r="K19" s="12">
+      <c r="N20" s="5"/>
+      <c r="O20" s="5">
         <v>0.86750724512358302</v>
       </c>
-      <c r="L19" s="10">
+      <c r="P20" s="5">
         <v>1.79598288635892</v>
       </c>
-      <c r="M19" s="10">
+      <c r="Q20" s="5">
         <v>7.1011103747971593E-2</v>
       </c>
-      <c r="N19" s="10" t="s">
+      <c r="R20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O19" s="34">
+      <c r="S20" s="6">
         <v>10.8468684156917</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="29"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="16" t="s">
+    <row r="21" spans="2:19">
+      <c r="B21" s="3"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="23">
+      <c r="E21" s="4"/>
+      <c r="F21" s="5">
         <v>0.87236367437291895</v>
       </c>
-      <c r="E20" s="4">
+      <c r="G21" s="5">
         <v>0.81991038986863896</v>
       </c>
-      <c r="F20" s="4">
+      <c r="H21" s="5">
         <v>16.631249741886801</v>
       </c>
-      <c r="G20" s="24">
+      <c r="I21" s="5">
         <v>4.02072472262489E-22</v>
       </c>
-      <c r="H20" s="23">
+      <c r="J21" s="16"/>
+      <c r="K21" s="5">
         <v>0.92112881559096205</v>
       </c>
-      <c r="I20" s="4">
+      <c r="L21" s="5">
         <v>6.7904435216367602</v>
       </c>
-      <c r="J20" s="24">
+      <c r="M21" s="5">
         <v>2.54264653579417E-9</v>
       </c>
-      <c r="K20" s="13">
+      <c r="N21" s="5"/>
+      <c r="O21" s="5">
         <v>0.379194775189584</v>
       </c>
-      <c r="L20" s="4">
+      <c r="P21" s="5">
         <v>1.54974357653228</v>
       </c>
-      <c r="M20" s="4">
+      <c r="Q21" s="5">
         <v>0.409090341251374</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="R21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O20" s="35"/>
+      <c r="S21" s="6"/>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="29"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="16" t="s">
+    <row r="22" spans="2:19">
+      <c r="B22" s="3"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="23">
+      <c r="E22" s="4"/>
+      <c r="F22" s="5">
         <v>0.91937597437356999</v>
       </c>
-      <c r="E21" s="4">
+      <c r="G22" s="5">
         <v>0.88624281315722997</v>
       </c>
-      <c r="F21" s="4">
+      <c r="H22" s="5">
         <v>27.747909967617201</v>
       </c>
-      <c r="G21" s="24">
+      <c r="I22" s="5">
         <v>4.2804081950245202E-29</v>
       </c>
-      <c r="H21" s="23">
+      <c r="J22" s="16"/>
+      <c r="K22" s="5">
         <v>0.93156977332330904</v>
       </c>
-      <c r="I21" s="4">
+      <c r="L22" s="5">
         <v>8.0804748429484192</v>
       </c>
-      <c r="J21" s="24">
+      <c r="M22" s="5">
         <v>9.9415778993987105E-12</v>
       </c>
-      <c r="K21" s="13">
+      <c r="N22" s="5"/>
+      <c r="O22" s="5">
         <v>9.43814629097635E-2</v>
       </c>
-      <c r="L21" s="4">
+      <c r="P22" s="5">
         <v>1.79442539358236</v>
       </c>
-      <c r="M21" s="4">
+      <c r="Q22" s="5">
         <v>0.46700870277392398</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="R22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O21" s="35"/>
+      <c r="S22" s="6"/>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1">
-      <c r="A22" s="30"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="17" t="s">
+    <row r="23" spans="2:19">
+      <c r="B23" s="8"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="25">
+      <c r="E23" s="9"/>
+      <c r="F23" s="10">
         <v>0.95846179306591905</v>
       </c>
-      <c r="E22" s="11">
+      <c r="G23" s="10">
         <v>0.94139129706561198</v>
       </c>
-      <c r="F22" s="11">
+      <c r="H23" s="10">
         <v>56.147272642146604</v>
       </c>
-      <c r="G22" s="26">
+      <c r="I23" s="10">
         <v>2.31569496277457E-39</v>
       </c>
-      <c r="H22" s="25">
+      <c r="J23" s="17"/>
+      <c r="K23" s="10">
         <v>1.0231564916742799</v>
       </c>
-      <c r="I22" s="11">
+      <c r="L23" s="10">
         <v>11.4862738822337</v>
       </c>
-      <c r="J22" s="26">
+      <c r="M23" s="10">
         <v>4.9958131786163897E-18</v>
       </c>
-      <c r="K22" s="14">
+      <c r="N23" s="5"/>
+      <c r="O23" s="10">
         <v>4.8140276965320999E-2</v>
       </c>
-      <c r="L22" s="11">
+      <c r="P23" s="10">
         <v>2.2168194850029801</v>
       </c>
-      <c r="M22" s="11">
+      <c r="Q23" s="10">
         <v>0.64678377448344204</v>
       </c>
-      <c r="N22" s="11" t="s">
+      <c r="R23" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O22" s="36"/>
+      <c r="S23" s="11"/>
     </row>
+    <row r="24" spans="2:19" ht="4" customHeight="1"/>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="O3:O6"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="O19:O22"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="O11:O14"/>
+  <mergeCells count="21">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="S8:S11"/>
+    <mergeCell ref="S20:S23"/>
+    <mergeCell ref="S16:S19"/>
+    <mergeCell ref="S12:S15"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="G3:G1048576">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="lessThan">
+  <conditionalFormatting sqref="I4:I23">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J1048576">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="lessThan">
+  <conditionalFormatting sqref="M4:M23">
+    <cfRule type="cellIs" dxfId="28" priority="9" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K1048576">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="greaterThan">
+  <conditionalFormatting sqref="O4:O23">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L1048576">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="between">
+  <conditionalFormatting sqref="P4:P23">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="between">
       <formula>1.5</formula>
       <formula>2.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="between">
       <formula>1.5</formula>
       <formula>2.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M1048576">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="greaterThan">
+  <conditionalFormatting sqref="Q4:Q23">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M1048576 O3:O1048576">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="Q4:Q23">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3 O7 O11 O15 O19 O23:O1048576">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="lessThan">
-      <formula>10</formula>
+  <conditionalFormatting sqref="R1 R3:R23">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+      <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Pass"</formula>
+  <conditionalFormatting sqref="S1:S24">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
+      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2305,8 +2487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851638F2-D2E0-4D93-B5E6-D28E3434FF27}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/study2/presentation_for_paper/study2a_result_summary_table.xlsx
+++ b/study2/presentation_for_paper/study2a_result_summary_table.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study2/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="530" documentId="8_{15C60E80-9A1A-48EA-A71C-165DF35CD085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FCE9310-E5E2-43C6-A040-09D9142E9D9B}"/>
+  <xr:revisionPtr revIDLastSave="561" documentId="8_{15C60E80-9A1A-48EA-A71C-165DF35CD085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F29F7F29-7B29-4D48-877D-759EA92737B5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9ED74C4E-2FEE-4727-A694-DD6A3E62DAA7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{9ED74C4E-2FEE-4727-A694-DD6A3E62DAA7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="original" sheetId="1" r:id="rId1"/>
+    <sheet name="stmd" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="48">
   <si>
     <t>Assumption Test</t>
     <phoneticPr fontId="1"/>
@@ -299,7 +301,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -367,13 +369,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -470,27 +529,45 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -503,20 +580,74 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,6 +844,72 @@
         <a:xfrm>
           <a:off x="958850" y="488950"/>
           <a:ext cx="7931150" cy="1250950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D18E60AC-D374-F3F6-3C6B-02C9A96D8A65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12928600" cy="4457700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1057,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E37A7FF-29BF-4061-BE3E-4B4F80131BE9}">
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T1" sqref="A1:T24"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1079,41 +1276,41 @@
   <sheetData>
     <row r="1" spans="2:20" ht="4" customHeight="1"/>
     <row r="2" spans="2:20" ht="18" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="47" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="12"/>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
       <c r="J2" s="12"/>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="14"/>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
     </row>
     <row r="3" spans="2:20" s="2" customFormat="1" ht="23">
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="42"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="14"/>
       <c r="F3" s="16" t="s">
         <v>8</v>
@@ -1155,10 +1352,10 @@
       </c>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="43" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -1200,13 +1397,13 @@
       <c r="R4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="43">
+      <c r="S4" s="37">
         <v>4.5338520000000004</v>
       </c>
     </row>
     <row r="5" spans="2:20">
-      <c r="B5" s="34"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1246,11 +1443,11 @@
       <c r="R5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="44"/>
+      <c r="S5" s="38"/>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="34"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1290,12 +1487,12 @@
       <c r="R6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S6" s="44"/>
+      <c r="S6" s="38"/>
       <c r="T6" s="5"/>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="35"/>
-      <c r="C7" s="38"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
@@ -1335,13 +1532,13 @@
       <c r="R7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="S7" s="45"/>
+      <c r="S7" s="39"/>
     </row>
     <row r="8" spans="2:20">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -1383,13 +1580,13 @@
       <c r="R8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="S8" s="43">
+      <c r="S8" s="37">
         <v>4.651713</v>
       </c>
     </row>
     <row r="9" spans="2:20">
-      <c r="B9" s="34"/>
-      <c r="C9" s="37"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
@@ -1429,11 +1626,11 @@
       <c r="R9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="44"/>
+      <c r="S9" s="38"/>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="34"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1473,11 +1670,11 @@
       <c r="R10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="44"/>
+      <c r="S10" s="38"/>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="35"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="9" t="s">
         <v>5</v>
       </c>
@@ -1517,13 +1714,13 @@
       <c r="R11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="45"/>
+      <c r="S11" s="39"/>
     </row>
     <row r="12" spans="2:20" ht="14.5" customHeight="1">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="43" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -1565,13 +1762,13 @@
       <c r="R12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="43">
+      <c r="S12" s="37">
         <v>4.7594735312080099</v>
       </c>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="34"/>
-      <c r="C13" s="37"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="8" t="s">
         <v>3</v>
       </c>
@@ -1611,11 +1808,11 @@
       <c r="R13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S13" s="44"/>
+      <c r="S13" s="38"/>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="34"/>
-      <c r="C14" s="37"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="8" t="s">
         <v>4</v>
       </c>
@@ -1655,11 +1852,11 @@
       <c r="R14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="44"/>
+      <c r="S14" s="38"/>
     </row>
     <row r="15" spans="2:20">
-      <c r="B15" s="35"/>
-      <c r="C15" s="38"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="9" t="s">
         <v>5</v>
       </c>
@@ -1699,13 +1896,13 @@
       <c r="R15" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="S15" s="45"/>
+      <c r="S15" s="39"/>
     </row>
     <row r="16" spans="2:20" ht="14.5" customHeight="1">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="43" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -1747,13 +1944,13 @@
       <c r="R16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="S16" s="43">
+      <c r="S16" s="37">
         <v>4.7594735312080099</v>
       </c>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="34"/>
-      <c r="C17" s="37"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="8" t="s">
         <v>3</v>
       </c>
@@ -1793,11 +1990,11 @@
       <c r="R17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S17" s="44"/>
+      <c r="S17" s="38"/>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="34"/>
-      <c r="C18" s="37"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="8" t="s">
         <v>4</v>
       </c>
@@ -1837,11 +2034,11 @@
       <c r="R18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S18" s="44"/>
+      <c r="S18" s="38"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="35"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="9" t="s">
         <v>5</v>
       </c>
@@ -1881,13 +2078,13 @@
       <c r="R19" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="S19" s="45"/>
+      <c r="S19" s="39"/>
     </row>
     <row r="20" spans="2:19" ht="14.5" customHeight="1">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -1929,13 +2126,13 @@
       <c r="R20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S20" s="46">
+      <c r="S20" s="40">
         <v>10.8468684156917</v>
       </c>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="34"/>
-      <c r="C21" s="37"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="8" t="s">
         <v>3</v>
       </c>
@@ -1975,11 +2172,11 @@
       <c r="R21" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="S21" s="46"/>
+      <c r="S21" s="40"/>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="34"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="8" t="s">
         <v>4</v>
       </c>
@@ -2019,11 +2216,11 @@
       <c r="R22" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="S22" s="46"/>
+      <c r="S22" s="40"/>
     </row>
     <row r="23" spans="2:19">
-      <c r="B23" s="35"/>
-      <c r="C23" s="38"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="9" t="s">
         <v>5</v>
       </c>
@@ -2063,11 +2260,19 @@
       <c r="R23" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="S23" s="47"/>
+      <c r="S23" s="41"/>
     </row>
     <row r="24" spans="2:19" ht="4" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="S4:S7"/>
@@ -2081,14 +2286,6 @@
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="C12:C15"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2096,10 +2293,1051 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DFD5C7-A359-491D-BCD1-6E0CD1E0DBDD}">
+  <dimension ref="B1:Q28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q2" sqref="A2:Q28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="0.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.08203125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="9.1640625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="8.5" style="1" customWidth="1"/>
+    <col min="12" max="16" width="10.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="0.9140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" ht="4" customHeight="1"/>
+    <row r="2" spans="2:17" ht="18" customHeight="1">
+      <c r="B2" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="44"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+    </row>
+    <row r="3" spans="2:17" s="2" customFormat="1" ht="23">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="61">
+        <v>0.25</v>
+      </c>
+      <c r="F4" s="11">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="H4" s="11">
+        <v>8.6099999999999996E-2</v>
+      </c>
+      <c r="I4" s="61">
+        <v>6.8655999999999997</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2.2709999999999999</v>
+      </c>
+      <c r="K4" s="68">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0.78290000000000004</v>
+      </c>
+      <c r="M4" s="11">
+        <v>1.6892</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0.1263</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="37">
+        <v>4.5338520000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="62">
+        <v>0.221</v>
+      </c>
+      <c r="F5" s="56">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G5" s="56">
+        <v>1.343</v>
+      </c>
+      <c r="H5" s="56">
+        <v>0.183</v>
+      </c>
+      <c r="I5" s="62">
+        <v>10.4178</v>
+      </c>
+      <c r="J5" s="56">
+        <v>2.899</v>
+      </c>
+      <c r="K5" s="69">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L5" s="56">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="M5" s="56">
+        <v>2.3898000000000001</v>
+      </c>
+      <c r="N5" s="56">
+        <v>0.49909999999999999</v>
+      </c>
+      <c r="O5" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="58"/>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="62">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="F6" s="56">
+        <v>0.159</v>
+      </c>
+      <c r="G6" s="56">
+        <v>2.0790000000000002</v>
+      </c>
+      <c r="H6" s="57">
+        <v>1.34E-2</v>
+      </c>
+      <c r="I6" s="62">
+        <v>14.7401</v>
+      </c>
+      <c r="J6" s="56">
+        <v>4.0640000000000001</v>
+      </c>
+      <c r="K6" s="69">
+        <v>0</v>
+      </c>
+      <c r="L6" s="56">
+        <v>0.66</v>
+      </c>
+      <c r="M6" s="56">
+        <v>2.0205000000000002</v>
+      </c>
+      <c r="N6" s="56">
+        <v>0.30059999999999998</v>
+      </c>
+      <c r="O6" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="62">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F7" s="56">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G7" s="56">
+        <v>1.03</v>
+      </c>
+      <c r="H7" s="56">
+        <v>0.436</v>
+      </c>
+      <c r="I7" s="62">
+        <v>6.8571999999999997</v>
+      </c>
+      <c r="J7" s="56">
+        <v>2.073</v>
+      </c>
+      <c r="K7" s="69">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="L7" s="56">
+        <v>0.36530000000000001</v>
+      </c>
+      <c r="M7" s="56">
+        <v>2.2107000000000001</v>
+      </c>
+      <c r="N7" s="56">
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="O7" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="58"/>
+    </row>
+    <row r="8" spans="2:17" ht="6" customHeight="1">
+      <c r="B8" s="55"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="62">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="F9" s="56">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="G9" s="56">
+        <v>5.0629999999999997</v>
+      </c>
+      <c r="H9" s="57">
+        <v>3.5600000000000001E-8</v>
+      </c>
+      <c r="I9" s="62">
+        <v>14.5144</v>
+      </c>
+      <c r="J9" s="56">
+        <v>6.6130000000000004</v>
+      </c>
+      <c r="K9" s="69">
+        <v>0</v>
+      </c>
+      <c r="L9" s="56">
+        <v>0.7641</v>
+      </c>
+      <c r="M9" s="56">
+        <v>1.8971</v>
+      </c>
+      <c r="N9" s="56">
+        <v>0.78239999999999998</v>
+      </c>
+      <c r="O9" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="58">
+        <v>4.651713</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="62">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F10" s="56">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="G10" s="56">
+        <v>7.3730000000000002</v>
+      </c>
+      <c r="H10" s="57">
+        <v>1.0399999999999999E-11</v>
+      </c>
+      <c r="I10" s="62">
+        <v>19.6831</v>
+      </c>
+      <c r="J10" s="56">
+        <v>10.099</v>
+      </c>
+      <c r="K10" s="69">
+        <v>0</v>
+      </c>
+      <c r="L10" s="56">
+        <v>0.70240000000000002</v>
+      </c>
+      <c r="M10" s="56">
+        <v>2.1375999999999999</v>
+      </c>
+      <c r="N10" s="56">
+        <v>0.76219999999999999</v>
+      </c>
+      <c r="O10" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="58"/>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="62">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="F11" s="56">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="G11" s="56">
+        <v>5.93</v>
+      </c>
+      <c r="H11" s="57">
+        <v>1.4200000000000001E-9</v>
+      </c>
+      <c r="I11" s="62">
+        <v>17.538900000000002</v>
+      </c>
+      <c r="J11" s="56">
+        <v>6.8730000000000002</v>
+      </c>
+      <c r="K11" s="69">
+        <v>0</v>
+      </c>
+      <c r="L11" s="56">
+        <v>0.87839999999999996</v>
+      </c>
+      <c r="M11" s="56">
+        <v>1.8333999999999999</v>
+      </c>
+      <c r="N11" s="56">
+        <v>0.21160000000000001</v>
+      </c>
+      <c r="O11" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" s="58"/>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="62">
+        <v>0.63753627210663499</v>
+      </c>
+      <c r="F12" s="56">
+        <v>0.53908933366646195</v>
+      </c>
+      <c r="G12" s="56">
+        <v>6.4759380251735204</v>
+      </c>
+      <c r="H12" s="57">
+        <v>2.0763884233372499E-10</v>
+      </c>
+      <c r="I12" s="62">
+        <v>17.991869230349501</v>
+      </c>
+      <c r="J12" s="56">
+        <v>9.3578528756025907</v>
+      </c>
+      <c r="K12" s="69">
+        <v>1.5594025548885099E-14</v>
+      </c>
+      <c r="L12" s="56">
+        <v>0.37024050882715298</v>
+      </c>
+      <c r="M12" s="56">
+        <v>1.69756113333481</v>
+      </c>
+      <c r="N12" s="56">
+        <v>0.58720854173044601</v>
+      </c>
+      <c r="O12" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="58"/>
+    </row>
+    <row r="13" spans="2:17" ht="6" customHeight="1">
+      <c r="B13" s="55"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+    </row>
+    <row r="14" spans="2:17" ht="14.5" customHeight="1">
+      <c r="B14" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="62">
+        <v>0.83941451741706197</v>
+      </c>
+      <c r="F14" s="56">
+        <v>0.78519084797347305</v>
+      </c>
+      <c r="G14" s="56">
+        <v>15.4805922585216</v>
+      </c>
+      <c r="H14" s="57">
+        <v>4.7428413460812098E-21</v>
+      </c>
+      <c r="I14" s="62">
+        <v>11.4348436276944</v>
+      </c>
+      <c r="J14" s="56">
+        <v>5.6168103226378596</v>
+      </c>
+      <c r="K14" s="69">
+        <v>2.9610140032215999E-7</v>
+      </c>
+      <c r="L14" s="56">
+        <v>0.86851546945105595</v>
+      </c>
+      <c r="M14" s="56">
+        <v>2.1421449882138601</v>
+      </c>
+      <c r="N14" s="59">
+        <v>4.5702703383471398E-2</v>
+      </c>
+      <c r="O14" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" s="58">
+        <v>4.7594735312080099</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="62">
+        <v>0.87242769354746896</v>
+      </c>
+      <c r="F15" s="56">
+        <v>0.82935133032973196</v>
+      </c>
+      <c r="G15" s="56">
+        <v>20.253048966497499</v>
+      </c>
+      <c r="H15" s="57">
+        <v>1.05392314057964E-24</v>
+      </c>
+      <c r="I15" s="62">
+        <v>13.0235678908497</v>
+      </c>
+      <c r="J15" s="56">
+        <v>6.3251296687906402</v>
+      </c>
+      <c r="K15" s="69">
+        <v>1.52757961481534E-8</v>
+      </c>
+      <c r="L15" s="56">
+        <v>0.73470473013759996</v>
+      </c>
+      <c r="M15" s="56">
+        <v>2.1492607800713102</v>
+      </c>
+      <c r="N15" s="56">
+        <v>5.2819835778967802E-2</v>
+      </c>
+      <c r="O15" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="58"/>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="62">
+        <v>0.865617043943257</v>
+      </c>
+      <c r="F16" s="56">
+        <v>0.82024098085916197</v>
+      </c>
+      <c r="G16" s="56">
+        <v>19.076512705366699</v>
+      </c>
+      <c r="H16" s="57">
+        <v>7.1257205745514898E-24</v>
+      </c>
+      <c r="I16" s="62">
+        <v>15.5482117147435</v>
+      </c>
+      <c r="J16" s="56">
+        <v>7.0107047581237403</v>
+      </c>
+      <c r="K16" s="69">
+        <v>7.9336051919577497E-10</v>
+      </c>
+      <c r="L16" s="59">
+        <v>1.78991066353856E-2</v>
+      </c>
+      <c r="M16" s="56">
+        <v>2.2749218582362301</v>
+      </c>
+      <c r="N16" s="56">
+        <v>5.8077503731981998E-2</v>
+      </c>
+      <c r="O16" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" s="58"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="62">
+        <v>0.89879228628544305</v>
+      </c>
+      <c r="F17" s="56">
+        <v>0.86461825308312501</v>
+      </c>
+      <c r="G17" s="56">
+        <v>26.300445164443801</v>
+      </c>
+      <c r="H17" s="57">
+        <v>2.00675096961216E-28</v>
+      </c>
+      <c r="I17" s="62">
+        <v>13.2434034904848</v>
+      </c>
+      <c r="J17" s="56">
+        <v>7.6646223652371503</v>
+      </c>
+      <c r="K17" s="69">
+        <v>4.4881819599392599E-11</v>
+      </c>
+      <c r="L17" s="56">
+        <v>0.55896241458343299</v>
+      </c>
+      <c r="M17" s="56">
+        <v>2.1809235300750598</v>
+      </c>
+      <c r="N17" s="56">
+        <v>0.13741797080745699</v>
+      </c>
+      <c r="O17" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" s="58"/>
+    </row>
+    <row r="18" spans="2:16" ht="6" customHeight="1">
+      <c r="B18" s="55"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="56"/>
+    </row>
+    <row r="19" spans="2:16" ht="14.5" customHeight="1">
+      <c r="B19" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="62">
+        <v>0.83941451741706197</v>
+      </c>
+      <c r="F19" s="56">
+        <v>0.78519084797347305</v>
+      </c>
+      <c r="G19" s="56">
+        <v>15.4805922585216</v>
+      </c>
+      <c r="H19" s="57">
+        <v>4.7428413460812098E-21</v>
+      </c>
+      <c r="I19" s="62">
+        <v>14.1025523521627</v>
+      </c>
+      <c r="J19" s="56">
+        <v>6.4103067325677703</v>
+      </c>
+      <c r="K19" s="69">
+        <v>1.0620637416471599E-8</v>
+      </c>
+      <c r="L19" s="56">
+        <v>0.86851546945105595</v>
+      </c>
+      <c r="M19" s="56">
+        <v>2.1421449882138601</v>
+      </c>
+      <c r="N19" s="59">
+        <v>4.5702703383471398E-2</v>
+      </c>
+      <c r="O19" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" s="58">
+        <v>4.7594735312080099</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="62">
+        <v>0.87242769354746896</v>
+      </c>
+      <c r="F20" s="56">
+        <v>0.82935133032973196</v>
+      </c>
+      <c r="G20" s="56">
+        <v>20.253048966497499</v>
+      </c>
+      <c r="H20" s="57">
+        <v>1.05392314057964E-24</v>
+      </c>
+      <c r="I20" s="62">
+        <v>13.984741724578001</v>
+      </c>
+      <c r="J20" s="56">
+        <v>7.0146646684541398</v>
+      </c>
+      <c r="K20" s="69">
+        <v>7.7977641432415996E-10</v>
+      </c>
+      <c r="L20" s="56">
+        <v>0.73470473013759996</v>
+      </c>
+      <c r="M20" s="56">
+        <v>2.1492607800713102</v>
+      </c>
+      <c r="N20" s="56">
+        <v>5.2819835778967802E-2</v>
+      </c>
+      <c r="O20" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" s="58"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="62">
+        <v>0.865617043943257</v>
+      </c>
+      <c r="F21" s="56">
+        <v>0.82024098085916197</v>
+      </c>
+      <c r="G21" s="56">
+        <v>19.076512705366699</v>
+      </c>
+      <c r="H21" s="57">
+        <v>7.1257205745514898E-24</v>
+      </c>
+      <c r="I21" s="62">
+        <v>10.2063714025224</v>
+      </c>
+      <c r="J21" s="56">
+        <v>4.5374540698320702</v>
+      </c>
+      <c r="K21" s="69">
+        <v>2.06355850586956E-5</v>
+      </c>
+      <c r="L21" s="59">
+        <v>1.78991066353856E-2</v>
+      </c>
+      <c r="M21" s="56">
+        <v>2.2749218582362301</v>
+      </c>
+      <c r="N21" s="56">
+        <v>5.8077503731981998E-2</v>
+      </c>
+      <c r="O21" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21" s="58"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="62">
+        <v>0.89879228628544305</v>
+      </c>
+      <c r="F22" s="56">
+        <v>0.86461825308312501</v>
+      </c>
+      <c r="G22" s="56">
+        <v>26.300445164443801</v>
+      </c>
+      <c r="H22" s="57">
+        <v>2.00675096961216E-28</v>
+      </c>
+      <c r="I22" s="62">
+        <v>15.039757350148101</v>
+      </c>
+      <c r="J22" s="56">
+        <v>8.88271380934974</v>
+      </c>
+      <c r="K22" s="69">
+        <v>2.0183254293969499E-13</v>
+      </c>
+      <c r="L22" s="56">
+        <v>0.55896241458343299</v>
+      </c>
+      <c r="M22" s="56">
+        <v>2.1809235300750598</v>
+      </c>
+      <c r="N22" s="56">
+        <v>0.13741797080745699</v>
+      </c>
+      <c r="O22" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" s="58"/>
+    </row>
+    <row r="23" spans="2:16" ht="6" customHeight="1">
+      <c r="B23" s="55"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="56"/>
+    </row>
+    <row r="24" spans="2:16" ht="14.5" customHeight="1">
+      <c r="B24" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="62">
+        <v>0.917743813014121</v>
+      </c>
+      <c r="F24" s="56">
+        <v>0.88393990055417104</v>
+      </c>
+      <c r="G24" s="56">
+        <v>27.149041227149102</v>
+      </c>
+      <c r="H24" s="57">
+        <v>8.6836690386240202E-29</v>
+      </c>
+      <c r="I24" s="62">
+        <v>1.0396302761442899</v>
+      </c>
+      <c r="J24" s="56">
+        <v>9.7677877518529108</v>
+      </c>
+      <c r="K24" s="69">
+        <v>6.8665729563589503E-15</v>
+      </c>
+      <c r="L24" s="56">
+        <v>0.86750724512358302</v>
+      </c>
+      <c r="M24" s="56">
+        <v>1.79598288635892</v>
+      </c>
+      <c r="N24" s="56">
+        <v>7.1011103747971593E-2</v>
+      </c>
+      <c r="O24" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" s="60">
+        <v>10.8468684156917</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="62">
+        <v>0.87236367437291895</v>
+      </c>
+      <c r="F25" s="56">
+        <v>0.81991038986863896</v>
+      </c>
+      <c r="G25" s="56">
+        <v>16.631249741886801</v>
+      </c>
+      <c r="H25" s="57">
+        <v>4.02072472262489E-22</v>
+      </c>
+      <c r="I25" s="62">
+        <v>0.92112881559096205</v>
+      </c>
+      <c r="J25" s="56">
+        <v>6.7904435216367602</v>
+      </c>
+      <c r="K25" s="69">
+        <v>2.54264653579417E-9</v>
+      </c>
+      <c r="L25" s="56">
+        <v>0.379194775189584</v>
+      </c>
+      <c r="M25" s="56">
+        <v>1.54974357653228</v>
+      </c>
+      <c r="N25" s="56">
+        <v>0.409090341251374</v>
+      </c>
+      <c r="O25" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="60"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="62">
+        <v>0.91937597437356999</v>
+      </c>
+      <c r="F26" s="56">
+        <v>0.88624281315722997</v>
+      </c>
+      <c r="G26" s="56">
+        <v>27.747909967617201</v>
+      </c>
+      <c r="H26" s="57">
+        <v>4.2804081950245202E-29</v>
+      </c>
+      <c r="I26" s="62">
+        <v>0.93156977332330904</v>
+      </c>
+      <c r="J26" s="56">
+        <v>8.0804748429484192</v>
+      </c>
+      <c r="K26" s="69">
+        <v>9.9415778993987105E-12</v>
+      </c>
+      <c r="L26" s="56">
+        <v>9.43814629097635E-2</v>
+      </c>
+      <c r="M26" s="56">
+        <v>1.79442539358236</v>
+      </c>
+      <c r="N26" s="56">
+        <v>0.46700870277392398</v>
+      </c>
+      <c r="O26" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26" s="60"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="34"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="63">
+        <v>0.95846179306591905</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.94139129706561198</v>
+      </c>
+      <c r="G27" s="7">
+        <v>56.147272642146604</v>
+      </c>
+      <c r="H27" s="28">
+        <v>2.31569496277457E-39</v>
+      </c>
+      <c r="I27" s="63">
+        <v>1.0231564916742799</v>
+      </c>
+      <c r="J27" s="7">
+        <v>11.4862738822337</v>
+      </c>
+      <c r="K27" s="70">
+        <v>4.9958131786163897E-18</v>
+      </c>
+      <c r="L27" s="31">
+        <v>4.8140276965320999E-2</v>
+      </c>
+      <c r="M27" s="7">
+        <v>2.2168194850029801</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0.64678377448344204</v>
+      </c>
+      <c r="O27" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="41"/>
+    </row>
+    <row r="28" spans="2:16" ht="4" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="P19:P22"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:P2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC43A568-C91E-4076-8025-7EDEE675A1DC}">
   <dimension ref="D2:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -2254,7 +3492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851638F2-D2E0-4D93-B5E6-D28E3434FF27}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2270,7 +3508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FEF956-173C-4C33-9F9B-94595FC9FABC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2284,4 +3522,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B289C878-47F6-443C-AF21-7AFD1B6716A7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>